--- a/Talento-Files/Gelir Modeli.xlsx
+++ b/Talento-Files/Gelir Modeli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YunusSumer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\termi\Documents\Projects\SchoolProjects\HR-Platform-Project\Talento-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F088E-31D6-4692-8EF5-F9780F4570E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56DE54-58F1-4A44-BB2C-6A51519BC70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DECDE232-7C73-4CE7-BE87-38EF18151507}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DECDE232-7C73-4CE7-BE87-38EF18151507}"/>
   </bookViews>
   <sheets>
     <sheet name="En İyi Senaryo" sheetId="2" r:id="rId1"/>
@@ -233,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₺&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -376,19 +376,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596E325-45E0-4770-97AE-75DC6A1410C5}">
   <dimension ref="C2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,20 +742,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="3:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
@@ -771,7 +771,7 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f>G16</f>
         <v>10450000</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f>L16</f>
         <v>3025200</v>
       </c>
@@ -834,13 +834,13 @@
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>1000</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f>2000*E9</f>
         <v>2000000</v>
       </c>
@@ -850,10 +850,10 @@
       <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>100</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>12*K9</f>
         <v>1200</v>
       </c>
@@ -865,13 +865,13 @@
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>2000</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f>1000*E10</f>
         <v>2000000</v>
       </c>
@@ -881,10 +881,10 @@
       <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>2000</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f t="shared" ref="L10:L14" si="0">12*K10</f>
         <v>24000</v>
       </c>
@@ -896,13 +896,13 @@
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>5000</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f>1000*E11</f>
         <v>5000000</v>
       </c>
@@ -912,10 +912,10 @@
       <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>10000</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
@@ -927,13 +927,13 @@
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>100</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <f>12000*E12</f>
         <v>1200000</v>
       </c>
@@ -943,11 +943,11 @@
       <c r="J12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f>10*20000</f>
         <v>200000</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f t="shared" si="0"/>
         <v>2400000</v>
       </c>
@@ -959,13 +959,13 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>500</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f>500*E13</f>
         <v>250000</v>
       </c>
@@ -975,10 +975,10 @@
       <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>30000</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>360000</v>
       </c>
@@ -990,17 +990,17 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="I14" s="5">
         <v>6</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <v>10000</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
@@ -1012,31 +1012,31 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="5">
         <v>8</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13">
         <f>SUM(G9:G15)</f>
         <v>10450000</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="15">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="13">
         <f>SUM(L9:L15)</f>
         <v>3025200</v>
       </c>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37211FA-1362-40FB-A558-ABEC0657259A}">
   <dimension ref="C2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,20 +1084,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="3:12" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3"/>
@@ -1113,7 +1113,7 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f>G16</f>
         <v>1900000</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f>L16</f>
         <v>1704720</v>
       </c>
@@ -1176,13 +1176,13 @@
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>650</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f>500*E9</f>
         <v>325000</v>
       </c>
@@ -1192,10 +1192,10 @@
       <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <v>60</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>12*K9</f>
         <v>720</v>
       </c>
@@ -1207,13 +1207,13 @@
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>1600</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f>250*E10</f>
         <v>400000</v>
       </c>
@@ -1223,10 +1223,10 @@
       <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <v>2000</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f t="shared" ref="L10:L14" si="0">12*K10</f>
         <v>24000</v>
       </c>
@@ -1238,13 +1238,13 @@
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>3000</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f>250*E11</f>
         <v>750000</v>
       </c>
@@ -1254,10 +1254,10 @@
       <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>10000</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
@@ -1269,13 +1269,13 @@
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>100</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <f>3000*E12</f>
         <v>300000</v>
       </c>
@@ -1285,11 +1285,11 @@
       <c r="J12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f>6*20000</f>
         <v>120000</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f t="shared" si="0"/>
         <v>1440000</v>
       </c>
@@ -1301,13 +1301,13 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>500</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f>250*E13</f>
         <v>125000</v>
       </c>
@@ -1317,10 +1317,10 @@
       <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <v>0</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1332,17 +1332,17 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="12"/>
       <c r="I14" s="5">
         <v>6</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <v>10000</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="5">
         <v>8</v>
       </c>
@@ -1363,22 +1363,22 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13">
         <f>SUM(G9:G15)</f>
         <v>1900000</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="15">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="13">
         <f>SUM(L9:L15)</f>
         <v>1704720</v>
       </c>
